--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_50.qasm_rb2_archsize8_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_50.qasm_rb2_archsize8_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1835"/>
+  <dimension ref="A1:N1836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.39314699172974</v>
+        <v>0.001526117324829102</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1127660274505615</v>
+        <v>0.0009667873382568359</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1205410957336426</v>
+        <v>0.1354458332061768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (2, 2), (2, 0), (1, 4), (0, 4), (1, 5), (2, 6), (3, 3), (2, 7), (1, 6), (4, 6), (3, 5), (4, 7), (5, 5), (5, 4), (4, 4), (3, 4), (6, 6), (0, 7), (6, 7), (3, 1), (3, 2), (3, 0), (7, 4), (7, 5), (5, 3), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [2, 2], [2, 0], [1, 4], [0, 4], [1, 5], [2, 6], [3, 3], [2, 7], [1, 6], [4, 6], [3, 5], [4, 7], [5, 5], [5, 4], [4, 4], [3, 4], [6, 6], [0, 7], [6, 7], [3, 1], [3, 2], [3, 0], [7, 4], [7, 5], [5, 3], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[(7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (6, 2), (2, 3), (1, 4), (0, 0), (1, 5), (0, 4), (0, 7), (2, 6), (3, 3), (2, 7), (1, 6), (4, 6), (3, 5), (4, 7), (5, 5), (5, 4), (4, 4), (3, 4), (6, 6), (6, 7), (6, 3), (4, 0), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [6, 2], [2, 3], [1, 4], [0, 0], [1, 5], [0, 4], [0, 7], [2, 6], [3, 3], [2, 7], [1, 6], [4, 6], [3, 5], [4, 7], [5, 5], [5, 4], [4, 4], [3, 4], [6, 6], [6, 7], [6, 3], [4, 0], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[(7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (2, 4), (2, 3), (4, 1), (2, 0), (6, 2), (2, 1), (2, 2), (7, 4), (5, 3), (3, 3), (4, 7), (3, 5), (3, 1), (3, 0), (3, 4), (4, 6), (4, 4), (6, 7), (5, 5), (5, 4), (4, 2), (2, 7), (2, 6), (0, 7), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (1, 7)]</t>
+          <t>[[7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [2, 4], [2, 3], [4, 1], [2, 0], [6, 2], [2, 1], [2, 2], [7, 4], [5, 3], [3, 3], [4, 7], [3, 5], [3, 1], [3, 0], [3, 4], [4, 6], [4, 4], [6, 7], [5, 5], [5, 4], [4, 2], [2, 7], [2, 6], [0, 7], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [1, 7]]</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>[(7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (0, 4), (0, 5), (4, 1), (2, 0), (6, 2), (0, 3), (1, 4), (7, 4), (5, 3), (3, 1), (4, 7), (1, 5), (1, 6), (3, 0), (2, 7), (6, 6), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [0, 4], [0, 5], [4, 1], [2, 0], [6, 2], [0, 3], [1, 4], [7, 4], [5, 3], [3, 1], [4, 7], [1, 5], [1, 6], [3, 0], [2, 7], [6, 6], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[(7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 0), (0, 7), (4, 6), (3, 2), (3, 1), (4, 1), (5, 2), (6, 2), (7, 1), (6, 3), (7, 4), (5, 3), (4, 0), (4, 7), (3, 4), (3, 3), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5)]</t>
+          <t>[[7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 0], [0, 7], [4, 6], [3, 2], [3, 1], [4, 1], [5, 2], [6, 2], [7, 1], [6, 3], [7, 4], [5, 3], [4, 0], [4, 7], [3, 4], [3, 3], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5]]</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[(7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (3, 2), (5, 4), (3, 4), (3, 0), (0, 7), (4, 4), (3, 1), (3, 3), (4, 1), (5, 2), (6, 2), (7, 1), (6, 3), (7, 4), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7)]</t>
+          <t>[[7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [3, 2], [5, 4], [3, 4], [3, 0], [0, 7], [4, 4], [3, 1], [3, 3], [4, 1], [5, 2], [6, 2], [7, 1], [6, 3], [7, 4], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7]]</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>[(7, 7), (7, 3), (6, 1), (7, 6), (4, 2), (3, 2), (5, 4), (3, 4), (3, 0), (0, 7), (4, 4), (3, 1), (3, 3), (4, 1), (5, 2), (6, 5), (6, 4), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 5), (6, 6)]</t>
+          <t>[[7, 7], [7, 3], [6, 1], [7, 6], [4, 2], [3, 2], [5, 4], [3, 4], [3, 0], [0, 7], [4, 4], [3, 1], [3, 3], [4, 1], [5, 2], [6, 5], [6, 4], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 5], [6, 6]]</t>
         </is>
       </c>
     </row>
@@ -5905,7 +5905,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>[(7, 3), (7, 2), (6, 1), (5, 1), (4, 2), (3, 2), (5, 4), (3, 4), (3, 0), (0, 7), (4, 4), (6, 4), (7, 7), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 5), (6, 6), (6, 7), (7, 5)]</t>
+          <t>[[7, 3], [7, 2], [6, 1], [5, 1], [4, 2], [3, 2], [5, 4], [3, 4], [3, 0], [0, 7], [4, 4], [6, 4], [7, 7], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 5], [6, 6], [6, 7], [7, 5]]</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>[(3, 3), (7, 2), (6, 1), (5, 1), (4, 2), (3, 2), (5, 4), (3, 4), (7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 5), (6, 7), (6, 6), (7, 4), (7, 5), (5, 3)]</t>
+          <t>[[3, 3], [7, 2], [6, 1], [5, 1], [4, 2], [3, 2], [5, 4], [3, 4], [7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 5], [6, 7], [6, 6], [7, 4], [7, 5], [5, 3]]</t>
         </is>
       </c>
     </row>
@@ -8260,7 +8260,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>[(3, 3), (7, 2), (6, 1), (5, 1), (4, 2), (3, 2), (7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 5), (6, 7), (6, 6), (7, 4), (7, 5), (5, 3), (4, 4), (4, 3)]</t>
+          <t>[[3, 3], [7, 2], [6, 1], [5, 1], [4, 2], [3, 2], [7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 5], [6, 7], [6, 6], [7, 4], [7, 5], [5, 3], [4, 4], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9478,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>[(3, 3), (7, 2), (6, 1), (5, 1), (7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 5), (6, 7), (6, 6), (7, 4), (7, 5), (5, 3), (4, 4), (4, 2), (3, 4), (4, 3)]</t>
+          <t>[[3, 3], [7, 2], [6, 1], [5, 1], [7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 5], [6, 7], [6, 6], [7, 4], [7, 5], [5, 3], [4, 4], [4, 2], [3, 4], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>[(3, 3), (7, 2), (7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 5), (6, 7), (6, 6), (7, 4), (7, 5), (5, 3), (4, 4), (4, 2), (3, 4), (3, 1), (3, 2), (4, 3)]</t>
+          <t>[[3, 3], [7, 2], [7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 5], [6, 7], [6, 6], [7, 4], [7, 5], [5, 3], [4, 4], [4, 2], [3, 4], [3, 1], [3, 2], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>[(7, 7), (7, 3), (6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 5), (6, 7), (6, 6), (7, 4), (7, 5), (5, 3), (4, 0), (3, 3), (4, 4), (4, 2), (3, 4), (3, 1), (3, 2), (4, 3)]</t>
+          <t>[[7, 7], [7, 3], [6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 5], [6, 7], [6, 6], [7, 4], [7, 5], [5, 3], [4, 0], [3, 3], [4, 4], [4, 2], [3, 4], [3, 1], [3, 2], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>[(6, 4), (7, 6), (6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 5), (6, 7), (6, 6), (7, 4), (7, 5), (4, 4), (7, 3), (5, 3), (4, 0), (3, 3), (3, 4), (4, 2), (3, 2), (3, 1), (3, 0), (4, 3)]</t>
+          <t>[[6, 4], [7, 6], [6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 5], [6, 7], [6, 6], [7, 4], [7, 5], [4, 4], [7, 3], [5, 3], [4, 0], [3, 3], [3, 4], [4, 2], [3, 2], [3, 1], [3, 0], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14256,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>[(6, 5), (5, 7), (5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 5), (6, 6), (6, 7), (5, 4), (6, 4), (7, 4), (7, 5), (4, 4), (7, 3), (5, 3), (4, 0), (3, 3), (3, 4), (4, 2), (3, 2), (3, 1), (3, 0), (4, 3)]</t>
+          <t>[[6, 5], [5, 7], [5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 5], [6, 6], [6, 7], [5, 4], [6, 4], [7, 4], [7, 5], [4, 4], [7, 3], [5, 3], [4, 0], [3, 3], [3, 4], [4, 2], [3, 2], [3, 1], [3, 0], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -15309,7 +15309,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>[(5, 6), (4, 5), (3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (5, 4), (5, 5), (4, 3), (6, 6), (6, 7), (3, 4), (6, 4), (7, 4), (7, 5), (4, 4), (7, 3), (5, 3), (4, 0), (3, 3), (3, 2), (4, 2), (3, 0), (3, 1), (4, 1), (5, 2)]</t>
+          <t>[[5, 6], [4, 5], [3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [5, 4], [5, 5], [4, 3], [6, 6], [6, 7], [3, 4], [6, 4], [7, 4], [7, 5], [4, 4], [7, 3], [5, 3], [4, 0], [3, 3], [3, 2], [4, 2], [3, 0], [3, 1], [4, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -16249,7 +16249,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>[(3, 7), (3, 6), (2, 5), (1, 7), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 7), (3, 5), (4, 6), (4, 7), (4, 4), (4, 5), (5, 4), (5, 5), (4, 3), (6, 6), (6, 7), (3, 4), (6, 4), (7, 4), (7, 5), (0, 7), (7, 3), (5, 3), (4, 0), (3, 3), (3, 2), (4, 2), (3, 0), (3, 1), (4, 1), (5, 2)]</t>
+          <t>[[3, 7], [3, 6], [2, 5], [1, 7], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 7], [3, 5], [4, 6], [4, 7], [4, 4], [4, 5], [5, 4], [5, 5], [4, 3], [6, 6], [6, 7], [3, 4], [6, 4], [7, 4], [7, 5], [0, 7], [7, 3], [5, 3], [4, 0], [3, 3], [3, 2], [4, 2], [3, 0], [3, 1], [4, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -17128,7 +17128,7 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>[(2, 7), (1, 6), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (0, 7), (2, 5), (3, 6), (3, 0), (3, 1), (3, 4), (3, 5), (1, 7), (4, 5), (5, 4), (5, 5), (4, 3), (6, 6), (6, 7), (3, 2), (6, 4), (7, 4), (7, 5), (3, 7), (7, 3), (5, 3), (4, 0), (3, 3), (4, 1), (4, 2), (5, 0), (5, 1), (5, 2), (6, 1)]</t>
+          <t>[[2, 7], [1, 6], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [0, 7], [2, 5], [3, 6], [3, 0], [3, 1], [3, 4], [3, 5], [1, 7], [4, 5], [5, 4], [5, 5], [4, 3], [6, 6], [6, 7], [3, 2], [6, 4], [7, 4], [7, 5], [3, 7], [7, 3], [5, 3], [4, 0], [3, 3], [4, 1], [4, 2], [5, 0], [5, 1], [5, 2], [6, 1]]</t>
         </is>
       </c>
     </row>
@@ -17996,7 +17996,7 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>[(7, 3), (7, 2), (6, 1), (5, 1), (4, 2), (3, 2), (2, 1), (1, 1), (0, 2), (0, 1), (1, 2), (2, 2), (3, 1), (4, 1), (5, 2), (6, 2), (7, 1), (6, 3), (7, 4), (5, 3), (0, 3), (0, 0), (2, 5), (3, 6), (3, 0), (2, 0), (3, 4), (3, 5), (1, 0), (0, 4), (3, 3), (5, 4), (4, 3), (6, 0), (6, 7), (2, 3), (6, 4), (6, 5), (7, 5), (3, 7), (1, 3), (4, 4), (4, 0), (0, 6), (1, 6), (2, 4), (5, 0), (5, 5), (4, 5), (7, 0)]</t>
+          <t>[[7, 3], [7, 2], [6, 1], [5, 1], [4, 2], [3, 2], [2, 1], [1, 1], [0, 2], [0, 1], [1, 2], [2, 2], [3, 1], [4, 1], [5, 2], [6, 2], [7, 1], [6, 3], [7, 4], [5, 3], [0, 3], [0, 0], [2, 5], [3, 6], [3, 0], [2, 0], [3, 4], [3, 5], [1, 0], [0, 4], [3, 3], [5, 4], [4, 3], [6, 0], [6, 7], [2, 3], [6, 4], [6, 5], [7, 5], [3, 7], [1, 3], [4, 4], [4, 0], [0, 6], [1, 6], [2, 4], [5, 0], [5, 5], [4, 5], [7, 0]]</t>
         </is>
       </c>
     </row>
@@ -18901,7 +18901,7 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>[(3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (3, 4), (3, 1), (0, 6), (0, 3), (6, 3), (7, 4), (5, 3), (1, 5), (4, 0), (2, 5), (3, 6), (4, 1), (4, 2), (3, 5), (2, 6), (5, 0), (1, 6), (4, 3), (5, 4), (4, 4), (0, 5), (0, 7), (2, 0), (1, 4), (0, 4), (3, 0), (3, 7), (1, 7), (4, 5), (5, 1), (2, 7), (4, 6), (5, 5), (5, 2), (5, 6), (4, 7), (7, 0)]</t>
+          <t>[[3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [3, 4], [3, 1], [0, 6], [0, 3], [6, 3], [7, 4], [5, 3], [1, 5], [4, 0], [2, 5], [3, 6], [4, 1], [4, 2], [3, 5], [2, 6], [5, 0], [1, 6], [4, 3], [5, 4], [4, 4], [0, 5], [0, 7], [2, 0], [1, 4], [0, 4], [3, 0], [3, 7], [1, 7], [4, 5], [5, 1], [2, 7], [4, 6], [5, 5], [5, 2], [5, 6], [4, 7], [7, 0]]</t>
         </is>
       </c>
     </row>
@@ -19619,7 +19619,7 @@
     <row r="1736">
       <c r="A1736" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (1, 1), (0, 2), (0, 0), (0, 1), (1, 2), (2, 0), (3, 0), (2, 2), (0, 6), (0, 4), (2, 4), (3, 4), (3, 2), (1, 5), (1, 4), (6, 3), (7, 4), (5, 3), (1, 6), (4, 1), (2, 5), (3, 6), (4, 2), (3, 3), (3, 5), (2, 6), (5, 0), (1, 7), (4, 3), (5, 4), (4, 4), (2, 3), (2, 7), (5, 1), (4, 5), (3, 7), (0, 5), (0, 7), (1, 3), (3, 1), (4, 0), (0, 3), (4, 6), (5, 5), (5, 2), (5, 6), (4, 7), (7, 0)]</t>
+          <t>[[2, 1], [1, 0], [1, 1], [0, 2], [0, 0], [0, 1], [1, 2], [2, 0], [3, 0], [2, 2], [0, 6], [0, 4], [2, 4], [3, 4], [3, 2], [1, 5], [1, 4], [6, 3], [7, 4], [5, 3], [1, 6], [4, 1], [2, 5], [3, 6], [4, 2], [3, 3], [3, 5], [2, 6], [5, 0], [1, 7], [4, 3], [5, 4], [4, 4], [2, 3], [2, 7], [5, 1], [4, 5], [3, 7], [0, 5], [0, 7], [1, 3], [3, 1], [4, 0], [0, 3], [4, 6], [5, 5], [5, 2], [5, 6], [4, 7], [7, 0]]</t>
         </is>
       </c>
     </row>
@@ -20164,7 +20164,7 @@
     <row r="1801">
       <c r="A1801" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (1, 1), (0, 0), (0, 3), (0, 7), (0, 5), (2, 0), (3, 0), (2, 2), (1, 5), (1, 4), (2, 4), (3, 4), (3, 2), (1, 7), (2, 3), (6, 3), (7, 4), (5, 3), (2, 5), (4, 1), (2, 6), (3, 6), (4, 2), (3, 3), (3, 5), (2, 7), (5, 0), (3, 7), (4, 3), (5, 4), (4, 4), (3, 1), (4, 7), (5, 1), (4, 5), (4, 6), (5, 5), (5, 6), (4, 0), (5, 2), (6, 0), (0, 6), (1, 6), (0, 4), (1, 0), (1, 2), (2, 1), (1, 3)]</t>
+          <t>[[0, 2], [0, 1], [1, 1], [0, 0], [0, 3], [0, 7], [0, 5], [2, 0], [3, 0], [2, 2], [1, 5], [1, 4], [2, 4], [3, 4], [3, 2], [1, 7], [2, 3], [6, 3], [7, 4], [5, 3], [2, 5], [4, 1], [2, 6], [3, 6], [4, 2], [3, 3], [3, 5], [2, 7], [5, 0], [3, 7], [4, 3], [5, 4], [4, 4], [3, 1], [4, 7], [5, 1], [4, 5], [4, 6], [5, 5], [5, 6], [4, 0], [5, 2], [6, 0], [0, 6], [1, 6], [0, 4], [1, 0], [1, 2], [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -20400,110 +20400,120 @@
     <row r="1831">
       <c r="A1831" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1831" t="n">
-        <v>316</v>
+        <v>0.9795896876711896</v>
       </c>
     </row>
     <row r="1832">
       <c r="A1832" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1832" t="n">
-        <v>1483</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1833">
       <c r="A1833" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1833" t="n">
-        <v>22</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1834">
       <c r="A1834" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1834" t="n">
-        <v>11.86493706703186</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1835">
       <c r="A1835" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1835" t="n">
+        <v>0.4242639541625977</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1835" t="inlineStr">
+      <c r="B1836" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1835" t="inlineStr">
+      <c r="C1836" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1835" t="inlineStr">
+      <c r="D1836" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1835" t="inlineStr">
+      <c r="E1836" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1835" t="inlineStr">
+      <c r="F1836" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1835" t="inlineStr">
+      <c r="G1836" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
+      <c r="H1836" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1835" t="inlineStr">
+      <c r="I1836" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1835" t="inlineStr">
+      <c r="J1836" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1835" t="inlineStr">
+      <c r="K1836" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1835" t="inlineStr">
+      <c r="L1836" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1835" t="inlineStr">
+      <c r="M1836" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1835" t="inlineStr">
+      <c r="N1836" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
